--- a/storage/data/27-2-24-import-crew-rineos.xlsx
+++ b/storage/data/27-2-24-import-crew-rineos.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtandjung/Projects/Laravel/rineos/storage/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E4B3C-ECA9-B647-BB2B-6B30FB28EBAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC5B41A-E4B5-F346-A670-DA9D306D3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37300" yWindow="500" windowWidth="27140" windowHeight="17500" xr2:uid="{E72164B6-E7B9-354B-9EFA-A05EF2F5DF01}"/>
+    <workbookView xWindow="38260" yWindow="500" windowWidth="27140" windowHeight="17500" xr2:uid="{E72164B6-E7B9-354B-9EFA-A05EF2F5DF01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1220" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="713">
   <si>
     <t>no</t>
   </si>
@@ -1986,6 +1986,195 @@
   </si>
   <si>
     <t>emergency_contact</t>
+  </si>
+  <si>
+    <t>birthdate_formated</t>
+  </si>
+  <si>
+    <t>14 August 1987</t>
+  </si>
+  <si>
+    <t>15 July 1994</t>
+  </si>
+  <si>
+    <t>18 October 1995</t>
+  </si>
+  <si>
+    <t>06 September 2000</t>
+  </si>
+  <si>
+    <t>06 January 1997</t>
+  </si>
+  <si>
+    <t>01 February 1973</t>
+  </si>
+  <si>
+    <t>21 September 1966</t>
+  </si>
+  <si>
+    <t>15 August 1988</t>
+  </si>
+  <si>
+    <t>28 October 1987</t>
+  </si>
+  <si>
+    <t>21 March 1982</t>
+  </si>
+  <si>
+    <t>26 December 1973</t>
+  </si>
+  <si>
+    <t>12 August 1990</t>
+  </si>
+  <si>
+    <t>29 October 1983</t>
+  </si>
+  <si>
+    <t>23 July 1973</t>
+  </si>
+  <si>
+    <t>10 October 1979</t>
+  </si>
+  <si>
+    <t>20 May 1978</t>
+  </si>
+  <si>
+    <t>13 April 1981</t>
+  </si>
+  <si>
+    <t>11 July 1983</t>
+  </si>
+  <si>
+    <t>18 October 1996</t>
+  </si>
+  <si>
+    <t>26 June 1981</t>
+  </si>
+  <si>
+    <t>02 March 1963</t>
+  </si>
+  <si>
+    <t>14 November 2000</t>
+  </si>
+  <si>
+    <t>18 December 1998</t>
+  </si>
+  <si>
+    <t>26 September 1990</t>
+  </si>
+  <si>
+    <t>23 January 1991</t>
+  </si>
+  <si>
+    <t>08 February 2003</t>
+  </si>
+  <si>
+    <t>28 December 1990</t>
+  </si>
+  <si>
+    <t>05 February 1971</t>
+  </si>
+  <si>
+    <t>01 January 1985</t>
+  </si>
+  <si>
+    <t>02 May 1968</t>
+  </si>
+  <si>
+    <t>03 May 1975</t>
+  </si>
+  <si>
+    <t>27 June 1983</t>
+  </si>
+  <si>
+    <t>02 April 1983</t>
+  </si>
+  <si>
+    <t>02 August 1982</t>
+  </si>
+  <si>
+    <t>02 April 1992</t>
+  </si>
+  <si>
+    <t>25 May 1981</t>
+  </si>
+  <si>
+    <t>27 December 1986</t>
+  </si>
+  <si>
+    <t>25 October 1971</t>
+  </si>
+  <si>
+    <t>20 July 1994</t>
+  </si>
+  <si>
+    <t>17 December 1995</t>
+  </si>
+  <si>
+    <t>27 August 1978</t>
+  </si>
+  <si>
+    <t>26 January 1994</t>
+  </si>
+  <si>
+    <t>01 October 1993</t>
+  </si>
+  <si>
+    <t>05 April 1989</t>
+  </si>
+  <si>
+    <t>07 January 1994</t>
+  </si>
+  <si>
+    <t>28 September 1983</t>
+  </si>
+  <si>
+    <t>23 April 1973</t>
+  </si>
+  <si>
+    <t>08 April 1992</t>
+  </si>
+  <si>
+    <t>20 April 1987</t>
+  </si>
+  <si>
+    <t>16 December 1984</t>
+  </si>
+  <si>
+    <t>13 August 2001</t>
+  </si>
+  <si>
+    <t>08 August 1984</t>
+  </si>
+  <si>
+    <t>29 April 1977</t>
+  </si>
+  <si>
+    <t>24 August 1990</t>
+  </si>
+  <si>
+    <t>03 July 1978</t>
+  </si>
+  <si>
+    <t>15 June 1992</t>
+  </si>
+  <si>
+    <t>20 August 1991</t>
+  </si>
+  <si>
+    <t>04 March 1982</t>
+  </si>
+  <si>
+    <t>16 August 1973</t>
+  </si>
+  <si>
+    <t>01 December 1994</t>
+  </si>
+  <si>
+    <t>24 March 1981</t>
+  </si>
+  <si>
+    <t>26 August 1976</t>
   </si>
 </sst>
 </file>
@@ -2382,10 +2571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{682DC4BD-1BB2-E04D-A3C6-464C165CE3DD}">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2401,14 +2590,15 @@
     <col min="11" max="11" width="14.33203125" customWidth="1"/>
     <col min="12" max="12" width="19.1640625" style="7" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="10"/>
-    <col min="17" max="17" width="14.33203125" customWidth="1"/>
-    <col min="19" max="19" width="20.5" style="7" customWidth="1"/>
-    <col min="21" max="21" width="27.33203125" customWidth="1"/>
-    <col min="22" max="22" width="25.1640625" customWidth="1"/>
-    <col min="23" max="23" width="25.83203125" customWidth="1"/>
+    <col min="17" max="17" width="21" customWidth="1"/>
+    <col min="18" max="18" width="14.33203125" customWidth="1"/>
+    <col min="20" max="20" width="20.5" style="7" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" customWidth="1"/>
+    <col min="23" max="23" width="25.1640625" customWidth="1"/>
+    <col min="24" max="24" width="25.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2457,29 +2647,32 @@
       <c r="P1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1210</v>
       </c>
@@ -2528,29 +2721,32 @@
       <c r="P2" s="9">
         <v>32003</v>
       </c>
-      <c r="Q2" s="3" t="s">
+      <c r="Q2" t="s">
+        <v>651</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="R2" s="3" t="s">
+      <c r="S2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="T2" s="3" t="s">
+      <c r="U2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="U2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="X2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>346</v>
       </c>
@@ -2599,29 +2795,32 @@
       <c r="P3" s="9">
         <v>34530</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="Q3" t="s">
+        <v>652</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W3" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>297</v>
       </c>
@@ -2670,29 +2869,32 @@
       <c r="P4" s="9">
         <v>34990</v>
       </c>
-      <c r="Q4" s="3" t="s">
+      <c r="Q4" t="s">
+        <v>653</v>
+      </c>
+      <c r="R4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="3" t="s">
+      <c r="S4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="6">
+      <c r="T4" s="6">
         <v>1290632338</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="U4" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="V4" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W4" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2444</v>
       </c>
@@ -2741,29 +2943,32 @@
       <c r="P5" s="9">
         <v>36775</v>
       </c>
-      <c r="Q5" s="3" t="s">
+      <c r="Q5" t="s">
+        <v>654</v>
+      </c>
+      <c r="R5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="R5" s="3" t="s">
+      <c r="S5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="T5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="U5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="V5" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X5" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2847</v>
       </c>
@@ -2812,29 +3017,32 @@
       <c r="P6" s="9">
         <v>35436</v>
       </c>
-      <c r="Q6" s="3" t="s">
+      <c r="Q6" t="s">
+        <v>655</v>
+      </c>
+      <c r="R6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="R6" s="3" t="s">
+      <c r="S6" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="T6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="T6" s="3" t="s">
+      <c r="U6" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="U6" s="3" t="s">
+      <c r="V6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="V6" s="3" t="s">
+      <c r="W6" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="W6" s="3" t="s">
+      <c r="X6" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>360</v>
       </c>
@@ -2883,29 +3091,32 @@
       <c r="P7" s="9">
         <v>35436</v>
       </c>
-      <c r="Q7" s="3" t="s">
+      <c r="Q7" t="s">
+        <v>655</v>
+      </c>
+      <c r="R7" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="R7" s="3" t="s">
+      <c r="S7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="T7" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="T7" s="3" t="s">
+      <c r="U7" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U7" s="3" t="s">
+      <c r="V7" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="V7" s="3" t="s">
+      <c r="W7" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="X7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>507</v>
       </c>
@@ -2954,29 +3165,32 @@
       <c r="P8" s="9">
         <v>26696</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>24</v>
+      <c r="Q8" t="s">
+        <v>656</v>
       </c>
       <c r="R8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S8" s="6">
+      <c r="T8" s="6">
         <v>1400016267966</v>
       </c>
-      <c r="T8" s="3" t="s">
+      <c r="U8" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="U8" s="3" t="s">
+      <c r="V8" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="V8" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3289</v>
       </c>
@@ -3025,29 +3239,32 @@
       <c r="P9" s="9">
         <v>24371</v>
       </c>
-      <c r="Q9" s="3" t="s">
+      <c r="Q9" t="s">
+        <v>657</v>
+      </c>
+      <c r="R9" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="R9" s="3" t="s">
+      <c r="S9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S9" s="6" t="s">
+      <c r="T9" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="T9" s="3" t="s">
+      <c r="U9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="U9" s="3" t="s">
+      <c r="V9" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="V9" s="3" t="s">
+      <c r="W9" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="W9" s="3" t="s">
+      <c r="X9" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>508</v>
       </c>
@@ -3096,29 +3313,32 @@
       <c r="P10" s="9">
         <v>32370</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>24</v>
+      <c r="Q10" t="s">
+        <v>658</v>
       </c>
       <c r="R10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="T10" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="T10" s="3" t="s">
+      <c r="U10" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="U10" s="3" t="s">
+      <c r="V10" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="V10" s="3" t="s">
+      <c r="W10" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="W10" s="3" t="s">
+      <c r="X10" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2555</v>
       </c>
@@ -3167,29 +3387,32 @@
       <c r="P11" s="9">
         <v>32078</v>
       </c>
-      <c r="Q11" s="3" t="s">
+      <c r="Q11" t="s">
+        <v>659</v>
+      </c>
+      <c r="R11" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="R11" s="3" t="s">
+      <c r="S11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="T11" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="T11" s="3" t="s">
+      <c r="U11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="U11" s="3" t="s">
+      <c r="V11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="V11" s="3">
+      <c r="W11" s="3">
         <v>82142733339</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="X11" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2602</v>
       </c>
@@ -3238,29 +3461,32 @@
       <c r="P12" s="9">
         <v>30031</v>
       </c>
-      <c r="Q12" s="3" t="s">
+      <c r="Q12" t="s">
+        <v>660</v>
+      </c>
+      <c r="R12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="R12" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="6" t="s">
+      <c r="T12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="T12" s="3" t="s">
+      <c r="U12" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="U12" s="3" t="s">
+      <c r="V12" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V12" s="3" t="s">
+      <c r="W12" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="X12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2419</v>
       </c>
@@ -3309,29 +3535,32 @@
       <c r="P13" s="9">
         <v>27024</v>
       </c>
-      <c r="Q13" s="3" t="s">
+      <c r="Q13" t="s">
+        <v>661</v>
+      </c>
+      <c r="R13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="R13" s="3" t="s">
+      <c r="S13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="T13" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="T13" s="3" t="s">
+      <c r="U13" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="U13" s="3" t="s">
+      <c r="V13" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="V13" s="3" t="s">
+      <c r="W13" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="W13" s="3" t="s">
+      <c r="X13" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2705</v>
       </c>
@@ -3380,29 +3609,32 @@
       <c r="P14" s="9">
         <v>33097</v>
       </c>
-      <c r="Q14" s="3" t="s">
+      <c r="Q14" t="s">
+        <v>662</v>
+      </c>
+      <c r="R14" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="R14" s="3" t="s">
+      <c r="S14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="T14" s="3" t="s">
+      <c r="U14" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="U14" s="3" t="s">
+      <c r="V14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="V14" s="3" t="s">
+      <c r="W14" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="W14" s="3" t="s">
+      <c r="X14" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>103</v>
       </c>
@@ -3451,29 +3683,32 @@
       <c r="P15" s="9">
         <v>30618</v>
       </c>
-      <c r="Q15" s="3" t="s">
+      <c r="Q15" t="s">
+        <v>663</v>
+      </c>
+      <c r="R15" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="R15" s="3" t="s">
+      <c r="S15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="6" t="s">
+      <c r="T15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="T15" s="3" t="s">
+      <c r="U15" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="U15" s="3" t="s">
+      <c r="V15" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>81364766276</v>
       </c>
-      <c r="W15" s="3" t="s">
+      <c r="X15" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>1166</v>
       </c>
@@ -3522,29 +3757,32 @@
       <c r="P16" s="9">
         <v>26868</v>
       </c>
-      <c r="Q16" s="3" t="s">
+      <c r="Q16" t="s">
+        <v>664</v>
+      </c>
+      <c r="R16" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="R16" s="3" t="s">
+      <c r="S16" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="T16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="T16" s="3" t="s">
+      <c r="U16" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="U16" s="3" t="s">
+      <c r="V16" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="V16" s="3" t="s">
+      <c r="W16" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="W16" s="3" t="s">
+      <c r="X16" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>971</v>
       </c>
@@ -3593,29 +3831,32 @@
       <c r="P17" s="9">
         <v>29138</v>
       </c>
-      <c r="Q17" s="3" t="s">
+      <c r="Q17" t="s">
+        <v>665</v>
+      </c>
+      <c r="R17" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="R17" s="2" t="s">
+      <c r="S17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="T17" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="T17" s="3" t="s">
+      <c r="U17" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="U17" s="3" t="s">
+      <c r="V17" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="V17" s="3" t="s">
+      <c r="W17" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="X17" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>1742</v>
       </c>
@@ -3664,29 +3905,32 @@
       <c r="P18" s="9">
         <v>28630</v>
       </c>
-      <c r="Q18" s="3" t="s">
+      <c r="Q18" t="s">
+        <v>666</v>
+      </c>
+      <c r="R18" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="R18" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="T18" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="T18" s="3" t="s">
+      <c r="U18" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="U18" s="3" t="s">
+      <c r="V18" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>85250992510</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>81355337973</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>226</v>
       </c>
@@ -3735,29 +3979,32 @@
       <c r="P19" s="9">
         <v>29689</v>
       </c>
-      <c r="Q19" s="3" t="s">
+      <c r="Q19" t="s">
+        <v>667</v>
+      </c>
+      <c r="R19" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="R19" s="3" t="s">
+      <c r="S19" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S19" s="6">
+      <c r="T19" s="6">
         <v>9000026384991</v>
       </c>
-      <c r="T19" s="3" t="s">
+      <c r="U19" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="U19" s="3" t="s">
+      <c r="V19" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="V19" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W19" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X19" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>1459</v>
       </c>
@@ -3806,29 +4053,32 @@
       <c r="P20" s="9">
         <v>30508</v>
       </c>
-      <c r="Q20" s="3" t="s">
+      <c r="Q20" t="s">
+        <v>668</v>
+      </c>
+      <c r="R20" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="R20" s="3" t="s">
+      <c r="S20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="T20" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="T20" s="3" t="s">
+      <c r="U20" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="V20" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="V20" s="3" t="s">
+      <c r="W20" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="W20" s="3" t="s">
+      <c r="X20" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2541</v>
       </c>
@@ -3877,29 +4127,32 @@
       <c r="P21" s="9">
         <v>35356</v>
       </c>
-      <c r="Q21" s="3" t="s">
+      <c r="Q21" t="s">
+        <v>669</v>
+      </c>
+      <c r="R21" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="R21" s="3" t="s">
+      <c r="S21" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="T21" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="T21" s="3" t="s">
+      <c r="U21" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="U21" s="3" t="s">
+      <c r="V21" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="V21" s="3" t="s">
+      <c r="W21" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="W21" s="3" t="s">
+      <c r="X21" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2677</v>
       </c>
@@ -3948,29 +4201,32 @@
       <c r="P22" s="9">
         <v>29763</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" t="s">
+        <v>670</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="R22" s="3" t="s">
+      <c r="S22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="T22" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="U22" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="V22" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="V22" s="3" t="s">
+      <c r="W22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="W22" s="3" t="s">
+      <c r="X22" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>313</v>
       </c>
@@ -4019,29 +4275,32 @@
       <c r="P23" s="9">
         <v>23072</v>
       </c>
-      <c r="Q23" s="3" t="s">
+      <c r="Q23" t="s">
+        <v>671</v>
+      </c>
+      <c r="R23" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="S23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S23" s="6" t="s">
+      <c r="T23" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="T23" s="3" t="s">
+      <c r="U23" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="U23" s="3" t="s">
+      <c r="V23" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="V23" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W23" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X23" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>1008</v>
       </c>
@@ -4090,29 +4349,32 @@
       <c r="P24" s="9">
         <v>36844</v>
       </c>
-      <c r="Q24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R24" s="2" t="s">
+      <c r="Q24" t="s">
+        <v>672</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S24" s="6" t="s">
+      <c r="T24" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="T24" s="3" t="s">
+      <c r="U24" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="V24" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W24" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X24" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2652</v>
       </c>
@@ -4161,29 +4423,32 @@
       <c r="P25" s="9">
         <v>36147</v>
       </c>
-      <c r="Q25" s="3" t="s">
+      <c r="Q25" t="s">
+        <v>673</v>
+      </c>
+      <c r="R25" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="R25" s="3" t="s">
+      <c r="S25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S25" s="6" t="s">
+      <c r="T25" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="U25" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="U25" s="3" t="s">
+      <c r="V25" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="V25" s="3" t="s">
+      <c r="W25" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="W25" s="3" t="s">
+      <c r="X25" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>3025</v>
       </c>
@@ -4232,29 +4497,32 @@
       <c r="P26" s="9">
         <v>33142</v>
       </c>
-      <c r="Q26" s="3" t="s">
-        <v>24</v>
+      <c r="Q26" t="s">
+        <v>674</v>
       </c>
       <c r="R26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S26" s="6" t="s">
+      <c r="T26" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="T26" s="3" t="s">
+      <c r="U26" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="U26" s="3" t="s">
+      <c r="V26" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="V26" s="3" t="s">
+      <c r="W26" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="W26" s="3" t="s">
+      <c r="X26" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>3217</v>
       </c>
@@ -4303,29 +4571,32 @@
       <c r="P27" s="9">
         <v>33261</v>
       </c>
-      <c r="Q27" s="3" t="s">
+      <c r="Q27" t="s">
+        <v>675</v>
+      </c>
+      <c r="R27" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="R27" s="3" t="s">
+      <c r="S27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S27" s="6" t="s">
+      <c r="T27" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="T27" s="3" t="s">
+      <c r="U27" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="U27" s="3" t="s">
+      <c r="V27" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="V27" s="3" t="s">
+      <c r="W27" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="W27" s="3" t="s">
+      <c r="X27" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>3050</v>
       </c>
@@ -4374,29 +4645,32 @@
       <c r="P28" s="9">
         <v>37660</v>
       </c>
-      <c r="Q28" s="3" t="s">
+      <c r="Q28" t="s">
+        <v>676</v>
+      </c>
+      <c r="R28" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="R28" s="3" t="s">
+      <c r="S28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S28" s="6" t="s">
+      <c r="T28" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="T28" s="3" t="s">
+      <c r="U28" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="U28" s="3" t="s">
+      <c r="V28" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="V28" s="3" t="s">
+      <c r="W28" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="W28" s="3" t="s">
+      <c r="X28" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>1445</v>
       </c>
@@ -4445,29 +4719,32 @@
       <c r="P29" s="9">
         <v>33235</v>
       </c>
-      <c r="Q29" s="3" t="s">
+      <c r="Q29" t="s">
+        <v>677</v>
+      </c>
+      <c r="R29" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="R29" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="6" t="s">
+      <c r="T29" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="T29" s="3" t="s">
+      <c r="U29" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="U29" s="3" t="s">
+      <c r="V29" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="V29" s="3">
+      <c r="W29" s="3">
         <v>85255837414</v>
       </c>
-      <c r="W29" s="3">
+      <c r="X29" s="3">
         <v>85386002949</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>724</v>
       </c>
@@ -4516,29 +4793,32 @@
       <c r="P30" s="9">
         <v>25969</v>
       </c>
-      <c r="Q30" s="3" t="s">
+      <c r="Q30" t="s">
+        <v>678</v>
+      </c>
+      <c r="R30" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="R30" s="2" t="s">
+      <c r="S30" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="T30" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="T30" s="3" t="s">
+      <c r="U30" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="U30" s="3" t="s">
+      <c r="V30" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="V30" s="3" t="s">
+      <c r="W30" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="W30" s="3" t="s">
+      <c r="X30" s="3" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>2919</v>
       </c>
@@ -4587,29 +4867,32 @@
       <c r="P31" s="9">
         <v>31048</v>
       </c>
-      <c r="Q31" s="3" t="s">
+      <c r="Q31" t="s">
+        <v>679</v>
+      </c>
+      <c r="R31" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="R31" s="3" t="s">
+      <c r="S31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="T31" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="T31" s="3" t="s">
+      <c r="U31" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="U31" s="3" t="s">
+      <c r="V31" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="V31" s="3" t="s">
+      <c r="W31" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="W31" s="3" t="s">
+      <c r="X31" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3281</v>
       </c>
@@ -4658,29 +4941,32 @@
       <c r="P32" s="9">
         <v>24960</v>
       </c>
-      <c r="Q32" s="3" t="s">
+      <c r="Q32" t="s">
+        <v>680</v>
+      </c>
+      <c r="R32" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="R32" s="3" t="s">
+      <c r="S32" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S32" s="6" t="s">
+      <c r="T32" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="T32" s="3" t="s">
+      <c r="U32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="U32" s="3" t="s">
+      <c r="V32" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="V32" s="3" t="s">
+      <c r="W32" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="W32" s="3" t="s">
+      <c r="X32" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2399</v>
       </c>
@@ -4729,29 +5015,32 @@
       <c r="P33" s="9">
         <v>27517</v>
       </c>
-      <c r="Q33" s="3" t="s">
+      <c r="Q33" t="s">
+        <v>681</v>
+      </c>
+      <c r="R33" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="R33" s="3" t="s">
+      <c r="S33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S33" s="6" t="s">
+      <c r="T33" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="T33" s="3" t="s">
+      <c r="U33" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="U33" s="3" t="s">
+      <c r="V33" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="V33" s="3" t="s">
+      <c r="W33" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="W33" s="3" t="s">
+      <c r="X33" s="3" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>1000</v>
       </c>
@@ -4800,29 +5089,32 @@
       <c r="P34" s="9">
         <v>30494</v>
       </c>
-      <c r="Q34" s="3" t="s">
-        <v>24</v>
+      <c r="Q34" t="s">
+        <v>682</v>
       </c>
       <c r="R34" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S34" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T34" s="3" t="s">
+      <c r="S34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T34" s="6" t="s">
         <v>24</v>
       </c>
       <c r="U34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V34" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="V34" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W34" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X34" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2889</v>
       </c>
@@ -4871,29 +5163,32 @@
       <c r="P35" s="9">
         <v>30408</v>
       </c>
-      <c r="Q35" s="3" t="s">
-        <v>24</v>
+      <c r="Q35" t="s">
+        <v>683</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S35" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T35" s="3" t="s">
+      <c r="S35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T35" s="6" t="s">
         <v>24</v>
       </c>
       <c r="U35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V35" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>81315050783</v>
       </c>
-      <c r="W35" s="3" t="s">
+      <c r="X35" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>1852</v>
       </c>
@@ -4942,29 +5237,32 @@
       <c r="P36" s="9">
         <v>30165</v>
       </c>
-      <c r="Q36" s="3" t="s">
+      <c r="Q36" t="s">
+        <v>684</v>
+      </c>
+      <c r="R36" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="R36" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S36" s="6" t="s">
+      <c r="T36" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="T36" s="3" t="s">
+      <c r="U36" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="U36" s="3" t="s">
+      <c r="V36" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="V36" s="3">
+      <c r="W36" s="3">
         <v>81253636893</v>
       </c>
-      <c r="W36" s="3">
+      <c r="X36" s="3">
         <v>81253635893</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>263</v>
       </c>
@@ -5013,29 +5311,32 @@
       <c r="P37" s="9">
         <v>33696</v>
       </c>
-      <c r="Q37" s="3" t="s">
+      <c r="Q37" t="s">
+        <v>685</v>
+      </c>
+      <c r="R37" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="R37" s="3" t="s">
+      <c r="S37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S37" s="6" t="s">
+      <c r="T37" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="T37" s="3" t="s">
+      <c r="U37" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="U37" s="3" t="s">
+      <c r="V37" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="V37" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W37" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X37" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>3053</v>
       </c>
@@ -5084,29 +5385,32 @@
       <c r="P38" s="9">
         <v>29731</v>
       </c>
-      <c r="Q38" s="3" t="s">
+      <c r="Q38" t="s">
+        <v>686</v>
+      </c>
+      <c r="R38" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="R38" s="3" t="s">
+      <c r="S38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S38" s="6" t="s">
+      <c r="T38" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="T38" s="3" t="s">
+      <c r="U38" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="U38" s="3" t="s">
+      <c r="V38" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="V38" s="3" t="s">
+      <c r="W38" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="W38" s="3" t="s">
+      <c r="X38" s="3" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2851</v>
       </c>
@@ -5155,29 +5459,32 @@
       <c r="P39" s="9">
         <v>31773</v>
       </c>
-      <c r="Q39" s="3" t="s">
+      <c r="Q39" t="s">
+        <v>687</v>
+      </c>
+      <c r="R39" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="R39" s="3" t="s">
+      <c r="S39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S39" s="6" t="s">
+      <c r="T39" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="T39" s="3" t="s">
+      <c r="U39" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="U39" s="3" t="s">
+      <c r="V39" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="V39" s="3">
+      <c r="W39" s="3">
         <v>81347104444</v>
       </c>
-      <c r="W39" s="3">
+      <c r="X39" s="3">
         <v>82155483844</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>1598</v>
       </c>
@@ -5226,29 +5533,32 @@
       <c r="P40" s="9">
         <v>26231</v>
       </c>
-      <c r="Q40" s="3" t="s">
+      <c r="Q40" t="s">
+        <v>688</v>
+      </c>
+      <c r="R40" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="R40" s="3" t="s">
+      <c r="S40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S40" s="6" t="s">
+      <c r="T40" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="T40" s="3" t="s">
+      <c r="U40" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="U40" s="3" t="s">
+      <c r="V40" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="V40" s="3" t="s">
+      <c r="W40" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="W40" s="3" t="s">
+      <c r="X40" s="3" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>578</v>
       </c>
@@ -5297,29 +5607,32 @@
       <c r="P41" s="9">
         <v>34535</v>
       </c>
-      <c r="Q41" s="3" t="s">
+      <c r="Q41" t="s">
+        <v>689</v>
+      </c>
+      <c r="R41" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="R41" s="2" t="s">
+      <c r="S41" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S41" s="6" t="s">
+      <c r="T41" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="T41" s="3" t="s">
+      <c r="U41" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="U41" s="3" t="s">
+      <c r="V41" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="V41" s="3" t="s">
+      <c r="W41" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="W41" s="3" t="s">
+      <c r="X41" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>755</v>
       </c>
@@ -5368,29 +5681,32 @@
       <c r="P42" s="9">
         <v>35050</v>
       </c>
-      <c r="Q42" s="3" t="s">
+      <c r="Q42" t="s">
+        <v>690</v>
+      </c>
+      <c r="R42" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="R42" s="2" t="s">
+      <c r="S42" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S42" s="6" t="s">
+      <c r="T42" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="T42" s="3" t="s">
+      <c r="U42" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="U42" s="3" t="s">
+      <c r="V42" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="V42" s="3" t="s">
+      <c r="W42" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="W42" s="3" t="s">
+      <c r="X42" s="3" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>3103</v>
       </c>
@@ -5439,29 +5755,32 @@
       <c r="P43" s="9">
         <v>28729</v>
       </c>
-      <c r="Q43" s="3" t="s">
+      <c r="Q43" t="s">
+        <v>691</v>
+      </c>
+      <c r="R43" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="R43" s="3" t="s">
+      <c r="S43" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S43" s="6" t="s">
+      <c r="T43" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="T43" s="3" t="s">
+      <c r="U43" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="U43" s="3" t="s">
+      <c r="V43" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="V43" s="3" t="s">
+      <c r="W43" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="W43" s="3" t="s">
+      <c r="X43" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>76</v>
       </c>
@@ -5510,29 +5829,32 @@
       <c r="P44" s="9">
         <v>34360</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" t="s">
+        <v>692</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>442</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="S44" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S44" s="6" t="s">
+      <c r="T44" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="U44" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="U44" s="3" t="s">
+      <c r="V44" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="V44" s="3" t="s">
+      <c r="W44" s="3" t="s">
         <v>446</v>
       </c>
-      <c r="W44" s="3" t="s">
+      <c r="X44" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2733</v>
       </c>
@@ -5581,29 +5903,32 @@
       <c r="P45" s="9">
         <v>34243</v>
       </c>
-      <c r="Q45" s="3" t="s">
+      <c r="Q45" t="s">
+        <v>693</v>
+      </c>
+      <c r="R45" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="R45" s="3" t="s">
+      <c r="S45" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S45" s="6" t="s">
+      <c r="T45" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="T45" s="3" t="s">
+      <c r="U45" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="U45" s="3" t="s">
+      <c r="V45" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="V45" s="3" t="s">
+      <c r="W45" s="3" t="s">
         <v>458</v>
       </c>
-      <c r="W45" s="3" t="s">
+      <c r="X45" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>1294</v>
       </c>
@@ -5652,29 +5977,32 @@
       <c r="P46" s="9">
         <v>32603</v>
       </c>
-      <c r="Q46" s="3" t="s">
+      <c r="Q46" t="s">
+        <v>694</v>
+      </c>
+      <c r="R46" s="3" t="s">
         <v>466</v>
       </c>
-      <c r="R46" s="3" t="s">
+      <c r="S46" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S46" s="6" t="s">
+      <c r="T46" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="T46" s="3" t="s">
+      <c r="U46" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="U46" s="3" t="s">
+      <c r="V46" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="V46" s="3" t="s">
+      <c r="W46" s="3" t="s">
         <v>470</v>
       </c>
-      <c r="W46" s="3" t="s">
+      <c r="X46" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>940</v>
       </c>
@@ -5723,29 +6051,32 @@
       <c r="P47" s="9">
         <v>34341</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="Q47" t="s">
+        <v>695</v>
+      </c>
+      <c r="R47" s="3" t="s">
         <v>476</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S47" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T47" s="3" t="s">
+      <c r="S47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T47" s="6" t="s">
         <v>24</v>
       </c>
       <c r="U47" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V47" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="V47" s="3" t="s">
+      <c r="W47" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="W47" s="3" t="s">
+      <c r="X47" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>780</v>
       </c>
@@ -5794,29 +6125,32 @@
       <c r="P48" s="9">
         <v>30587</v>
       </c>
-      <c r="Q48" s="3" t="s">
+      <c r="Q48" t="s">
+        <v>696</v>
+      </c>
+      <c r="R48" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="R48" s="2" t="s">
+      <c r="S48" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S48" s="6" t="s">
+      <c r="T48" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="T48" s="3" t="s">
+      <c r="U48" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="U48" s="3" t="s">
+      <c r="V48" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="V48" s="3" t="s">
+      <c r="W48" s="3" t="s">
         <v>487</v>
       </c>
-      <c r="W48" s="3" t="s">
+      <c r="X48" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>611</v>
       </c>
@@ -5865,29 +6199,32 @@
       <c r="P49" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="Q49" t="s">
         <v>24</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="T49" s="3" t="s">
+      <c r="S49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T49" s="6" t="s">
         <v>24</v>
       </c>
       <c r="U49" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="V49" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="V49" s="3" t="s">
+      <c r="W49" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="W49" s="3" t="s">
+      <c r="X49" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2805</v>
       </c>
@@ -5936,29 +6273,32 @@
       <c r="P50" s="9">
         <v>26777</v>
       </c>
-      <c r="Q50" s="3" t="s">
+      <c r="Q50" t="s">
+        <v>697</v>
+      </c>
+      <c r="R50" s="3" t="s">
         <v>499</v>
       </c>
-      <c r="R50" s="3" t="s">
+      <c r="S50" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S50" s="6" t="s">
+      <c r="T50" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="T50" s="3" t="s">
+      <c r="U50" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="U50" s="3" t="s">
+      <c r="V50" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="V50" s="3" t="s">
+      <c r="W50" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="W50" s="3" t="s">
+      <c r="X50" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>1888</v>
       </c>
@@ -6007,29 +6347,32 @@
       <c r="P51" s="9">
         <v>33702</v>
       </c>
-      <c r="Q51" s="3" t="s">
+      <c r="Q51" t="s">
+        <v>698</v>
+      </c>
+      <c r="R51" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="R51" s="3" t="s">
+      <c r="S51" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S51" s="6" t="s">
+      <c r="T51" s="6" t="s">
         <v>511</v>
       </c>
-      <c r="T51" s="3" t="s">
+      <c r="U51" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="U51" s="3" t="s">
+      <c r="V51" s="3" t="s">
         <v>513</v>
-      </c>
-      <c r="V51" s="3" t="s">
-        <v>514</v>
       </c>
       <c r="W51" s="3" t="s">
         <v>514</v>
       </c>
+      <c r="X51" s="3" t="s">
+        <v>514</v>
+      </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>1107</v>
       </c>
@@ -6078,29 +6421,32 @@
       <c r="P52" s="9">
         <v>31887</v>
       </c>
-      <c r="Q52" s="3" t="s">
+      <c r="Q52" t="s">
+        <v>699</v>
+      </c>
+      <c r="R52" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="R52" s="3" t="s">
+      <c r="S52" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S52" s="6" t="s">
+      <c r="T52" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="T52" s="3" t="s">
+      <c r="U52" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="U52" s="3" t="s">
+      <c r="V52" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="V52" s="3" t="s">
+      <c r="W52" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="W52" s="3" t="s">
+      <c r="X52" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2326</v>
       </c>
@@ -6149,29 +6495,32 @@
       <c r="P53" s="9">
         <v>31032</v>
       </c>
-      <c r="Q53" s="3" t="s">
+      <c r="Q53" t="s">
+        <v>700</v>
+      </c>
+      <c r="R53" s="3" t="s">
         <v>530</v>
       </c>
-      <c r="R53" s="3" t="s">
+      <c r="S53" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S53" s="6" t="s">
+      <c r="T53" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="T53" s="3" t="s">
+      <c r="U53" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="U53" s="3" t="s">
+      <c r="V53" s="3" t="s">
         <v>533</v>
       </c>
-      <c r="V53" s="3" t="s">
+      <c r="W53" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="W53" s="3" t="s">
+      <c r="X53" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>1991</v>
       </c>
@@ -6220,29 +6569,32 @@
       <c r="P54" s="9">
         <v>37116</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>24</v>
+      <c r="Q54" t="s">
+        <v>701</v>
       </c>
       <c r="R54" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S54" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S54" s="6" t="s">
+      <c r="T54" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="T54" s="3" t="s">
+      <c r="U54" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="U54" s="3" t="s">
+      <c r="V54" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="V54" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W54" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X54" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>155</v>
       </c>
@@ -6291,29 +6643,32 @@
       <c r="P55" s="9">
         <v>30902</v>
       </c>
-      <c r="Q55" s="3" t="s">
+      <c r="Q55" t="s">
+        <v>702</v>
+      </c>
+      <c r="R55" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="R55" s="3" t="s">
+      <c r="S55" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S55" s="6" t="s">
+      <c r="T55" s="6" t="s">
         <v>545</v>
       </c>
-      <c r="T55" s="3" t="s">
+      <c r="U55" s="3" t="s">
         <v>542</v>
       </c>
-      <c r="U55" s="3" t="s">
+      <c r="V55" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="V55" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W55" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X55" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>2031</v>
       </c>
@@ -6362,29 +6717,32 @@
       <c r="P56" s="9">
         <v>28244</v>
       </c>
-      <c r="Q56" s="3" t="s">
+      <c r="Q56" t="s">
+        <v>703</v>
+      </c>
+      <c r="R56" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="R56" s="3" t="s">
+      <c r="S56" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S56" s="6" t="s">
+      <c r="T56" s="6" t="s">
         <v>552</v>
       </c>
-      <c r="T56" s="3" t="s">
+      <c r="U56" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U56" s="3" t="s">
+      <c r="V56" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="V56" s="3" t="s">
+      <c r="W56" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="W56" s="3" t="s">
+      <c r="X56" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>2721</v>
       </c>
@@ -6433,29 +6791,32 @@
       <c r="P57" s="9">
         <v>33109</v>
       </c>
-      <c r="Q57" s="3" t="s">
+      <c r="Q57" t="s">
+        <v>704</v>
+      </c>
+      <c r="R57" s="3" t="s">
         <v>562</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S57" s="6" t="s">
+      <c r="T57" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>565</v>
       </c>
-      <c r="V57" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W57" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X57" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>139</v>
       </c>
@@ -6504,29 +6865,32 @@
       <c r="P58" s="9">
         <v>28674</v>
       </c>
-      <c r="Q58" s="3" t="s">
+      <c r="Q58" t="s">
+        <v>705</v>
+      </c>
+      <c r="R58" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="R58" s="3" t="s">
+      <c r="S58" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S58" s="6" t="s">
+      <c r="T58" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="T58" s="3" t="s">
+      <c r="U58" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="U58" s="3" t="s">
+      <c r="V58" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X58" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>114</v>
       </c>
@@ -6575,29 +6939,32 @@
       <c r="P59" s="9">
         <v>33770</v>
       </c>
-      <c r="Q59" s="3" t="s">
+      <c r="Q59" t="s">
+        <v>706</v>
+      </c>
+      <c r="R59" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="R59" s="3" t="s">
+      <c r="S59" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S59" s="6">
+      <c r="T59" s="6">
         <v>1200005630749</v>
       </c>
-      <c r="T59" s="3" t="s">
+      <c r="U59" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="U59" s="3" t="s">
+      <c r="V59" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="W59" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="X59" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>2408</v>
       </c>
@@ -6646,29 +7013,32 @@
       <c r="P60" s="9">
         <v>33470</v>
       </c>
-      <c r="Q60" s="3" t="s">
+      <c r="Q60" t="s">
+        <v>707</v>
+      </c>
+      <c r="R60" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="R60" s="3" t="s">
+      <c r="S60" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S60" s="6" t="s">
+      <c r="T60" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="T60" s="3" t="s">
+      <c r="U60" s="3" t="s">
         <v>583</v>
       </c>
-      <c r="U60" s="3" t="s">
+      <c r="V60" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="V60" s="3" t="s">
+      <c r="W60" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="W60" s="3" t="s">
+      <c r="X60" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2995</v>
       </c>
@@ -6717,29 +7087,32 @@
       <c r="P61" s="9">
         <v>30014</v>
       </c>
-      <c r="Q61" s="3" t="s">
+      <c r="Q61" t="s">
+        <v>708</v>
+      </c>
+      <c r="R61" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="R61" s="3" t="s">
+      <c r="S61" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S61" s="6" t="s">
+      <c r="T61" s="6" t="s">
         <v>593</v>
       </c>
-      <c r="T61" s="3" t="s">
+      <c r="U61" s="3" t="s">
         <v>594</v>
       </c>
-      <c r="U61" s="3" t="s">
+      <c r="V61" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="V61" s="3" t="s">
+      <c r="W61" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="W61" s="3" t="s">
+      <c r="X61" s="3" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>2464</v>
       </c>
@@ -6788,29 +7161,32 @@
       <c r="P62" s="9">
         <v>26892</v>
       </c>
-      <c r="Q62" s="3" t="s">
+      <c r="Q62" t="s">
+        <v>709</v>
+      </c>
+      <c r="R62" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="R62" s="3" t="s">
+      <c r="S62" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S62" s="6" t="s">
+      <c r="T62" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="T62" s="3" t="s">
+      <c r="U62" s="3" t="s">
         <v>606</v>
       </c>
-      <c r="U62" s="3" t="s">
+      <c r="V62" s="3" t="s">
         <v>607</v>
       </c>
-      <c r="V62" s="3" t="s">
+      <c r="W62" s="3" t="s">
         <v>608</v>
       </c>
-      <c r="W62" s="3" t="s">
+      <c r="X62" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>783</v>
       </c>
@@ -6859,29 +7235,32 @@
       <c r="P63" s="9">
         <v>34669</v>
       </c>
-      <c r="Q63" s="3" t="s">
+      <c r="Q63" t="s">
+        <v>710</v>
+      </c>
+      <c r="R63" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="R63" s="2" t="s">
+      <c r="S63" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="S63" s="6" t="s">
+      <c r="T63" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="T63" s="3" t="s">
+      <c r="U63" s="3" t="s">
         <v>616</v>
       </c>
-      <c r="U63" s="3" t="s">
+      <c r="V63" s="3" t="s">
         <v>617</v>
       </c>
-      <c r="V63" s="3" t="s">
+      <c r="W63" s="3" t="s">
         <v>618</v>
       </c>
-      <c r="W63" s="3" t="s">
+      <c r="X63" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>1286</v>
       </c>
@@ -6930,29 +7309,32 @@
       <c r="P64" s="9">
         <v>29669</v>
       </c>
-      <c r="Q64" s="3" t="s">
+      <c r="Q64" t="s">
+        <v>711</v>
+      </c>
+      <c r="R64" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="R64" s="3" t="s">
+      <c r="S64" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S64" s="6" t="s">
+      <c r="T64" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="T64" s="3" t="s">
+      <c r="U64" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="U64" s="3" t="s">
+      <c r="V64" s="3" t="s">
         <v>628</v>
       </c>
-      <c r="V64" s="3" t="s">
+      <c r="W64" s="3" t="s">
         <v>629</v>
       </c>
-      <c r="W64" s="3" t="s">
+      <c r="X64" s="3" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>3013</v>
       </c>
@@ -7001,25 +7383,28 @@
       <c r="P65" s="9">
         <v>27998</v>
       </c>
-      <c r="Q65" s="3" t="s">
+      <c r="Q65" t="s">
+        <v>712</v>
+      </c>
+      <c r="R65" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="R65" s="3" t="s">
+      <c r="S65" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="S65" s="6" t="s">
+      <c r="T65" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="T65" s="3" t="s">
+      <c r="U65" s="3" t="s">
         <v>640</v>
       </c>
-      <c r="U65" s="3" t="s">
+      <c r="V65" s="3" t="s">
         <v>641</v>
       </c>
-      <c r="V65" s="3" t="s">
+      <c r="W65" s="3" t="s">
         <v>642</v>
       </c>
-      <c r="W65" s="3" t="s">
+      <c r="X65" s="3" t="s">
         <v>24</v>
       </c>
     </row>
